--- a/DATA_goal/Junction_Flooding_279.xlsx
+++ b/DATA_goal/Junction_Flooding_279.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41711.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.63</v>
+        <v>1.46</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>31.56</v>
+        <v>3.16</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23.99</v>
+        <v>2.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.21</v>
+        <v>3.42</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>17.8</v>
+        <v>1.78</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>15.84</v>
+        <v>1.58</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.17</v>
+        <v>1.02</v>
       </c>
       <c r="R2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>3.09</v>
       </c>
-      <c r="S2" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>167.74</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>31.87</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>10.62</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>20.52</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>30.92</v>
-      </c>
       <c r="AG2" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.28</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41711.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.71</v>
+        <v>0.47</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.45</v>
+        <v>0.14</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.42</v>
+        <v>0.54</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23.19</v>
+        <v>2.32</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.54</v>
+        <v>0.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.7</v>
+        <v>0.77</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.1</v>
+        <v>0.51</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>77.39</v>
+        <v>7.74</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.7</v>
+        <v>1.57</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.14</v>
+        <v>0.51</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.06</v>
+        <v>1.01</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.18</v>
+        <v>0.52</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.3</v>
+        <v>1.13</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.99</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.11</v>
+        <v>0.61</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.69</v>
+        <v>2.17</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41711.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.72</v>
+        <v>1.77</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.74</v>
+        <v>3.87</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.17</v>
+        <v>3.12</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.85</v>
+        <v>1.39</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.31</v>
+        <v>5.13</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.52</v>
+        <v>2.15</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.47</v>
+        <v>1.55</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.43</v>
+        <v>1.64</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.47</v>
+        <v>0.45</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.91</v>
+        <v>1.39</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.68</v>
+        <v>1.97</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>20.44</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AB4" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>204.4</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>38.82</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>25.9</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>25.36</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>11.34</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>10.13</v>
-      </c>
       <c r="AC4" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>46.66</v>
+        <v>4.67</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.05</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41711.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>15.96</v>
+        <v>1.6</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25.89</v>
+        <v>2.59</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.84</v>
+        <v>0.88</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.83</v>
+        <v>0.38</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.51</v>
+        <v>0.55</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.35</v>
+        <v>0.64</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.78</v>
+        <v>0.68</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.18</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.71</v>
+        <v>0.57</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.07</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>79.68000000000001</v>
+        <v>7.97</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>16.15</v>
+        <v>1.62</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.65</v>
+        <v>1.07</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.53</v>
+        <v>0.55</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.66</v>
+        <v>0.47</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.52</v>
+        <v>0.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>23.94</v>
+        <v>2.39</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41711.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>12.99</v>
+        <v>1.3</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>38.32</v>
+        <v>3.83</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>31.13</v>
+        <v>3.11</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>13.74</v>
+        <v>1.37</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>51.28</v>
+        <v>5.13</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>21.29</v>
+        <v>2.13</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>9.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>13.94</v>
+        <v>1.39</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>16.29</v>
+        <v>1.63</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>19.55</v>
+        <v>1.95</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>11.63</v>
+        <v>1.16</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>202.11</v>
+        <v>20.21</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>38.41</v>
+        <v>3.84</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>12.7</v>
+        <v>1.27</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>25.77</v>
+        <v>2.58</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>25.22</v>
+        <v>2.52</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>9.960000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.43</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>46.5</v>
+        <v>4.65</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>7.14</v>
+        <v>0.71</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41711.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>7.16</v>
+        <v>0.72</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.59</v>
+        <v>0.06</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>12.55</v>
+        <v>1.25</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>25.7</v>
+        <v>2.57</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>5.56</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>6.28</v>
+        <v>0.63</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>6.7</v>
+        <v>0.67</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.82</v>
+        <v>0.18</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>8.01</v>
+        <v>0.8</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>4.87</v>
+        <v>0.49</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC7" s="4" t="n">
         <v>0.49</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>78.54000000000001</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>5.21</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>10.61</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>4.86</v>
-      </c>
       <c r="AD7" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>23.72</v>
+        <v>2.37</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41711.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>28.9</v>
+        <v>2.89</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>23.49</v>
+        <v>2.35</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>39.1</v>
+        <v>3.91</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>11.57</v>
+        <v>1.16</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.33</v>
+        <v>0.33</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>10.38</v>
+        <v>1.04</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>150.6</v>
+        <v>15.06</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>28.96</v>
+        <v>2.9</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>9.58</v>
+        <v>0.96</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>19.44</v>
+        <v>1.94</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>10.21</v>
+        <v>1.02</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>19.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>7.51</v>
+        <v>0.75</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>12.08</v>
+        <v>1.21</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>35.41</v>
+        <v>3.54</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>5.38</v>
+        <v>0.54</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41711.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>14.85</v>
+        <v>1.49</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>11.06</v>
+        <v>1.11</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>32.44</v>
+        <v>3.24</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>26.47</v>
+        <v>2.65</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>45.21</v>
+        <v>4.52</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>18.03</v>
+        <v>1.8</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.02</v>
+        <v>0.8</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>11.87</v>
+        <v>1.19</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>13.8</v>
+        <v>1.38</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>11.65</v>
+        <v>1.17</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>16.6</v>
+        <v>1.66</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>170.07</v>
+        <v>17.01</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>32.59</v>
+        <v>3.26</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>21.92</v>
+        <v>2.19</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>22.05</v>
+        <v>2.2</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>9.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>13.59</v>
+        <v>1.36</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>41.12</v>
+        <v>4.11</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.06</v>
+        <v>0.61</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41711.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.62</v>
+        <v>1.56</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>34.11</v>
+        <v>3.41</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.89</v>
+        <v>2.79</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>48.03</v>
+        <v>4.8</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.96</v>
+        <v>1.9</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.67</v>
+        <v>1.37</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.51</v>
+        <v>1.45</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.94</v>
+        <v>0.39</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.29</v>
+        <v>1.03</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>179.23</v>
+        <v>17.92</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>34.28</v>
+        <v>3.43</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.31</v>
+        <v>1.13</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>23.09</v>
+        <v>2.31</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.11</v>
+        <v>1.21</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.34</v>
+        <v>2.33</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.99</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.83</v>
+        <v>0.88</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.31</v>
+        <v>1.43</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>43.68</v>
+        <v>4.37</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.39</v>
+        <v>0.64</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.14</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_279.xlsx
+++ b/DATA_goal/Junction_Flooding_279.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
     <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41711.34027777778</v>
+        <v>44960.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.46</v>
+        <v>2.4</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>27.88</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.97</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.58</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41711.34722222222</v>
+        <v>44960.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.7</v>
+        <v>1.15</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.8</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.16</v>
+        <v>2.03</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.54</v>
+        <v>0.91</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.32</v>
+        <v>3.82</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.86</v>
+        <v>1.4</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.6</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.61</v>
+        <v>0.97</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.65</v>
+        <v>1.02</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="Q3" s="4" t="n">
         <v>0.77</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.51</v>
-      </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.74</v>
+        <v>13</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.57</v>
+        <v>2.54</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.83</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.9</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.78</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.42</v>
+        <v>0.67</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.78</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.02</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.17</v>
+        <v>3.45</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.64</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41711.35416666666</v>
+        <v>44960.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.71</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.87</v>
+        <v>2.15</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.12</v>
+        <v>1.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.79</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.13</v>
+        <v>3.21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.15</v>
+        <v>1.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.8</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.86</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.64</v>
+        <v>0.9</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.39</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.97</v>
+        <v>1.11</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.68</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.44</v>
+        <v>11.28</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.88</v>
+        <v>2.21</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.28</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.59</v>
+        <v>1.47</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.36</v>
+        <v>0.79</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.54</v>
+        <v>1.51</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>0.64</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.58</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>0.68</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.9</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.67</v>
+        <v>2.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.4</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.61</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41711.36111111111</v>
+        <v>44960.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.72</v>
+        <v>0.62</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.44</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.68</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.97</v>
+        <v>6.71</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.45</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.07</v>
+        <v>0.91</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.22</v>
+        <v>0.99</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.39</v>
+        <v>1.93</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41711.36805555555</v>
+        <v>44960.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.75</v>
+        <v>18.26</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.3</v>
+        <v>13.45</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>3.83</v>
+        <v>39.47</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>3.11</v>
+        <v>32.68</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.37</v>
+        <v>14.37</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>5.13</v>
+        <v>52.62</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>2.13</v>
+        <v>22.11</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.39</v>
+        <v>14.71</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.53</v>
+        <v>15.84</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.63</v>
+        <v>16.7</v>
       </c>
       <c r="N6" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>210.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>39.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="O6" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>20.21</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF6" s="4" t="n">
-        <v>4.65</v>
+        <v>47.46</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.71</v>
+        <v>7.44</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.59</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41711.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41711.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41711.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>17.01</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41711.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41711.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>28.96</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>94.55</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>13.73</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>7.72</v>
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_279.xlsx
+++ b/DATA_goal/Junction_Flooding_279.xlsx
@@ -451,10 +451,10 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -464,7 +464,7 @@
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
@@ -655,103 +655,103 @@
         <v>44960.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.4</v>
+        <v>24.02</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.07</v>
+        <v>50.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.19</v>
+        <v>41.95</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.89</v>
+        <v>18.9</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.32</v>
+        <v>63.18</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.09</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.18</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.99</v>
+        <v>19.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.09</v>
+        <v>20.92</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.8</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.65</v>
+        <v>26.51</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.6</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.83</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>27.88</v>
+        <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.24</v>
+        <v>52.37</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.49</v>
+        <v>34.89</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.81</v>
+        <v>18.13</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.13</v>
+        <v>31.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.53</v>
+        <v>15.33</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.71</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.59</v>
+        <v>55.94</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.17</v>
+        <v>21.69</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44960.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.65</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.45</v>
+        <v>24.47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.03</v>
+        <v>20.29</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.07</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.82</v>
+        <v>38.15</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.97</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.2</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.9</v>
+        <v>9.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.92</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13</v>
+        <v>130.03</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.54</v>
+        <v>25.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.77</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.78</v>
+        <v>17.83</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.74</v>
+        <v>7.36</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.71</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.83</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.45</v>
+        <v>34.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44960.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.13</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.11</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.55</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.87</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.21</v>
+        <v>32.1</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.8</v>
+        <v>8.02</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.79</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>11.28</v>
+        <v>112.85</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.08</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.64</v>
+        <v>6.44</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.89</v>
+        <v>28.9</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.109999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44960.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.1</v>
+        <v>11.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.13</v>
+        <v>21.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.76</v>
+        <v>7.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.88</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>67.06999999999999</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>1.93</v>
+        <v>19.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_279.xlsx
+++ b/DATA_goal/Junction_Flooding_279.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44960.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.02</v>
+        <v>24.021</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16.69</v>
+        <v>16.687</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.26</v>
+        <v>4.255</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>50.7</v>
+        <v>50.696</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>41.95</v>
+        <v>41.946</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.9</v>
+        <v>18.904</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>63.18</v>
+        <v>63.181</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.09</v>
+        <v>29.086</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.43</v>
+        <v>12.432</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.18</v>
+        <v>19.179</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.93</v>
+        <v>19.925</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.92</v>
+        <v>20.923</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.04</v>
+        <v>6.036</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.8</v>
+        <v>18.798</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>26.51</v>
+        <v>26.508</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.6</v>
+        <v>15.598</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.83</v>
+        <v>3.832</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.606</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>278.79</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>52.37</v>
+        <v>52.368</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.351</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>34.89</v>
+        <v>34.892</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.13</v>
+        <v>18.126</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.39</v>
+        <v>2.393</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.29</v>
+        <v>31.289</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.33</v>
+        <v>15.326</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.71</v>
+        <v>13.706</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>16.03</v>
+        <v>16.029</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>20.71</v>
+        <v>20.711</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>55.94</v>
+        <v>55.941</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>9.720000000000001</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>21.69</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="3">
@@ -765,97 +765,97 @@
         <v>7.99</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.65</v>
+        <v>1.651</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.47</v>
+        <v>24.472</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.29</v>
+        <v>20.288</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.07</v>
+        <v>9.074</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>38.15</v>
+        <v>38.153</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.96</v>
+        <v>13.961</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.97</v>
+        <v>5.973</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>9.134</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.702</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.2</v>
+        <v>10.195</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.9</v>
+        <v>2.901</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.02</v>
+        <v>9.023</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.71</v>
+        <v>12.709</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.74</v>
+        <v>7.741</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.596</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.922</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>130.03</v>
+        <v>130.034</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>25.36</v>
+        <v>25.359</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.33</v>
+        <v>8.329000000000001</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.77</v>
+        <v>16.769</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>8.959</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.12</v>
+        <v>1.119</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>17.83</v>
+        <v>17.834</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.36</v>
+        <v>7.357</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.71</v>
+        <v>6.705</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.83</v>
+        <v>7.833</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.15</v>
+        <v>10.152</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>34.55</v>
+        <v>34.546</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.61</v>
+        <v>4.611</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.413</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44960.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.09</v>
+        <v>10.089</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.13</v>
+        <v>7.134</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.11</v>
+        <v>1.111</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>21.55</v>
+        <v>21.549</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.87</v>
+        <v>17.869</v>
       </c>
       <c r="G4" s="4" t="n">
         <v>7.94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.1</v>
+        <v>32.103</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.22</v>
+        <v>12.216</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.28</v>
+        <v>5.281</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>8.02</v>
+        <v>8.016</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.6</v>
+        <v>8.602</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>9.037000000000001</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.537</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.895</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.13</v>
+        <v>11.134</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.79</v>
+        <v>6.788</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>1.037</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.62</v>
+        <v>0.624</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>112.85</v>
+        <v>112.847</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>22.11</v>
+        <v>22.111</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.29</v>
+        <v>7.288</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>14.67</v>
+        <v>14.665</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>7.9</v>
+        <v>7.899</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.98</v>
+        <v>0.977</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.08</v>
+        <v>15.084</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.44</v>
+        <v>6.437</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>5.83</v>
+        <v>5.834</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.83</v>
+        <v>6.828</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>9.036</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.9</v>
+        <v>28.899</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.04</v>
+        <v>4.041</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>9.111000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.64</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44960.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_279.xlsx
+++ b/DATA_goal/Junction_Flooding_279.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44960.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.25</v>
+        <v>6.246</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.36</v>
+        <v>4.359</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.29</v>
+        <v>13.286</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.03</v>
+        <v>11.031</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.92</v>
+        <v>4.915</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.29</v>
+        <v>21.286</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.25</v>
+        <v>3.254</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.32</v>
+        <v>5.317</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.56</v>
+        <v>5.562</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.573</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.89</v>
+        <v>4.888</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.88</v>
+        <v>6.884</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.26</v>
+        <v>4.265</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.408</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>67.06999999999999</v>
+        <v>67.075</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.76</v>
+        <v>13.764</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.51</v>
+        <v>4.511</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.08</v>
+        <v>9.084</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.93</v>
+        <v>4.934</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.59</v>
+        <v>0.587</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>9.863</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.98</v>
+        <v>3.985</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.64</v>
+        <v>3.643</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.26</v>
+        <v>4.258</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.59</v>
+        <v>5.594</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.26</v>
+        <v>19.257</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.47</v>
+        <v>2.475</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44960.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>18.26</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>39.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>52.62</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>22.11</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>210.12</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>39.87</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.19</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.34</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>16.49</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_279.xlsx
+++ b/DATA_goal/Junction_Flooding_279.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44960.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.246</v>
+        <v>6.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.359</v>
+        <v>4.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.766</v>
+        <v>0.77</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.286</v>
+        <v>13.29</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.031</v>
+        <v>11.03</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.915</v>
+        <v>4.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>21.286</v>
+        <v>21.29</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.562</v>
+        <v>7.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.254</v>
+        <v>3.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.926</v>
+        <v>4.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.317</v>
+        <v>5.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.562</v>
+        <v>5.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.573</v>
+        <v>1.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.888</v>
+        <v>4.89</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.884</v>
+        <v>6.88</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.265</v>
+        <v>4.26</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.408</v>
+        <v>0.41</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>67.075</v>
+        <v>67.06999999999999</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.764</v>
+        <v>13.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.511</v>
+        <v>4.51</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.084</v>
+        <v>9.08</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.934</v>
+        <v>4.93</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.587</v>
+        <v>0.59</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.863</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.985</v>
+        <v>3.98</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.643</v>
+        <v>3.64</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.258</v>
+        <v>4.26</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.594</v>
+        <v>5.59</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>19.257</v>
+        <v>19.26</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.475</v>
+        <v>2.47</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.641</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44960.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>39.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>52.62</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>22.11</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.84</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>14.29</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>210.12</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>39.87</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.19</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>26.8</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>47.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>16.49</v>
+        <v>5.64</v>
       </c>
     </row>
   </sheetData>
